--- a/output/PersonalHealthRecords/composition-phs-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phs-1.xlsx
@@ -1536,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AL90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/PersonalHealthRecords/composition-phs-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phs-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="435">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
 </t>
   </si>
   <si>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Personal Health Summary"/&gt;</t>
   </si>
   <si>
     <t>./title</t>
@@ -802,7 +799,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -837,7 +834,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -908,7 +905,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -933,7 +930,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1013,8 +1010,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1080,7 +1077,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1093,7 +1090,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1141,7 +1138,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1335,7 +1332,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
+    <t>Allergies and Adverse Reactions</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1346,10 +1343,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
 </t>
   </si>
   <si>
@@ -1372,7 +1369,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medicine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies           ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists()) xor           (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists()))}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {(Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).count() &lt; 2) and            (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).exists() implies            Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().value.coding.where($this.system='http://snomed.info/sct' and $this.code='1234391000168107').exists())}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Current Medications"/&gt;</t>
+    <t>Current Medications</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1383,7 +1380,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1440,67 +1437,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -4553,7 +4550,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4610,10 +4607,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4647,13 +4644,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4682,46 +4679,46 @@
         <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4752,19 +4749,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4813,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4825,13 +4822,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4945,7 +4942,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5049,10 +5046,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5074,13 +5071,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5157,11 +5154,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5186,7 +5183,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5239,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5291,16 +5288,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5328,11 +5325,11 @@
         <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5364,10 +5361,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5401,14 +5398,14 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5457,7 +5454,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5472,10 +5469,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5483,7 +5480,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5506,17 +5503,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5565,7 +5562,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5580,18 +5577,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5614,19 +5611,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5675,7 +5672,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5690,10 +5687,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5701,7 +5698,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5724,16 +5721,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5783,7 +5780,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5795,13 +5792,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5915,7 +5912,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6023,11 +6020,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6052,7 +6049,7 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6105,7 +6102,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6157,13 +6154,13 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6192,46 +6189,46 @@
         <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6239,7 +6236,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6262,13 +6259,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6319,7 +6316,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6334,10 +6331,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6345,7 +6342,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6368,19 +6365,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6429,7 +6426,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6441,13 +6438,13 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6561,7 +6558,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6669,11 +6666,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6698,7 +6695,7 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>74</v>
@@ -6751,7 +6748,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6777,7 +6774,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6803,13 +6800,13 @@
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6838,11 +6835,11 @@
         <v>109</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6859,7 +6856,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6908,13 +6905,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6965,7 +6962,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6991,7 +6988,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7014,13 +7011,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7071,7 +7068,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7086,7 +7083,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>68</v>
@@ -7097,7 +7094,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7120,13 +7117,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7165,17 +7162,17 @@
         <v>39</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7187,13 +7184,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7307,7 +7304,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7411,10 +7408,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -7436,13 +7433,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7519,11 +7516,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7548,7 +7545,7 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7601,7 +7598,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7627,11 +7624,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7653,16 +7650,16 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7711,7 +7708,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7726,10 +7723,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7737,7 +7734,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7763,16 +7760,16 @@
         <v>181</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7800,11 +7797,11 @@
         <v>109</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7821,7 +7818,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7873,13 +7870,13 @@
         <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7929,7 +7926,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7938,16 +7935,16 @@
         <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7955,7 +7952,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7981,16 +7978,16 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -8018,43 +8015,43 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>68</v>
@@ -8065,7 +8062,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8091,16 +8088,16 @@
         <v>181</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8128,43 +8125,43 @@
         <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>68</v>
@@ -8175,7 +8172,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8198,16 +8195,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8257,7 +8254,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8266,16 +8263,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AK62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8283,7 +8280,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8309,16 +8306,16 @@
         <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8346,43 +8343,43 @@
         <v>187</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>68</v>
@@ -8393,7 +8390,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8419,13 +8416,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8475,7 +8472,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8484,16 +8481,16 @@
         <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8501,10 +8498,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8526,13 +8523,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8583,7 +8580,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8595,13 +8592,13 @@
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8609,7 +8606,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8715,7 +8712,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8819,10 +8816,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
@@ -8844,13 +8841,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8927,11 +8924,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8956,7 +8953,7 @@
         <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>74</v>
@@ -9009,7 +9006,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9035,11 +9032,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9061,23 +9058,23 @@
         <v>64</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>39</v>
@@ -9119,7 +9116,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9134,10 +9131,10 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9145,7 +9142,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9171,23 +9168,23 @@
         <v>181</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>39</v>
@@ -9208,11 +9205,11 @@
         <v>109</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
       </c>
@@ -9229,7 +9226,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9255,7 +9252,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9281,13 +9278,13 @@
         <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9337,7 +9334,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9346,16 +9343,16 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AK72" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9363,7 +9360,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9389,23 +9386,23 @@
         <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9426,43 +9423,43 @@
         <v>175</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>68</v>
@@ -9473,7 +9470,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9499,16 +9496,16 @@
         <v>181</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9536,43 +9533,43 @@
         <v>187</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>68</v>
@@ -9583,7 +9580,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9606,16 +9603,16 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="L75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9665,7 +9662,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9674,16 +9671,16 @@
         <v>41</v>
       </c>
       <c r="AH75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="AK75" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -9691,7 +9688,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9717,16 +9714,16 @@
         <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>39</v>
@@ -9755,7 +9752,7 @@
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
@@ -9773,7 +9770,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9782,13 +9779,13 @@
         <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>68</v>
@@ -9799,7 +9796,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9825,13 +9822,13 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9881,7 +9878,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9890,16 +9887,16 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -9907,10 +9904,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9932,13 +9929,13 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9989,7 +9986,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10001,13 +9998,13 @@
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -10015,7 +10012,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10121,7 +10118,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10225,10 +10222,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -10250,13 +10247,13 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10333,11 +10330,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10362,7 +10359,7 @@
         <v>159</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>74</v>
@@ -10415,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10441,11 +10438,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10467,23 +10464,23 @@
         <v>64</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>39</v>
@@ -10525,7 +10522,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10540,10 +10537,10 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10551,7 +10548,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10577,23 +10574,23 @@
         <v>181</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>39</v>
@@ -10614,11 +10611,11 @@
         <v>109</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
       </c>
@@ -10635,7 +10632,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10661,7 +10658,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10687,13 +10684,13 @@
         <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10743,7 +10740,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10752,16 +10749,16 @@
         <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AI85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AK85" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10769,7 +10766,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10795,23 +10792,23 @@
         <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10832,43 +10829,43 @@
         <v>175</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>68</v>
@@ -10879,7 +10876,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10905,16 +10902,16 @@
         <v>181</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -10942,43 +10939,43 @@
         <v>187</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>68</v>
@@ -10989,7 +10986,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11012,16 +11009,16 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K88" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="L88" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11071,7 +11068,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11080,16 +11077,16 @@
         <v>41</v>
       </c>
       <c r="AH88" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11097,7 +11094,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11123,16 +11120,16 @@
         <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
@@ -11161,7 +11158,7 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -11179,7 +11176,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11188,13 +11185,13 @@
         <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>68</v>
@@ -11205,7 +11202,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11231,13 +11228,13 @@
         <v>39</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11287,7 +11284,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11296,16 +11293,16 @@
         <v>41</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/composition-phs-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phs-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>en-AU</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
 </t>
   </si>
   <si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Personal Health Summary"/&gt;</t>
   </si>
   <si>
     <t>./title</t>
@@ -799,7 +802,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -834,7 +837,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
 </t>
   </si>
   <si>
@@ -905,7 +908,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -930,7 +933,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
 </t>
   </si>
   <si>
@@ -1010,8 +1013,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier
-Reference(Composition)</t>
+    <t>Identifier {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1077,7 +1080,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -1090,7 +1093,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1138,7 +1141,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
 </t>
   </si>
   <si>
@@ -1332,7 +1335,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
   </si>
   <si>
-    <t>Allergies and Adverse Reactions</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1343,10 +1346,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>snapshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
 </t>
   </si>
   <si>
@@ -1369,7 +1372,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medicine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies           ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists()) xor           (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists()))}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {(Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).count() &lt; 2) and            (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).exists() implies            Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().value.coding.where($this.system='http://snomed.info/sct' and $this.code='1234391000168107').exists())}</t>
   </si>
   <si>
-    <t>Current Medications</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Current Medications"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1380,7 +1383,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1437,67 +1440,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1533,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AM90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4550,7 +4553,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4607,10 +4610,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4644,13 +4647,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4679,10 +4682,10 @@
         <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4700,7 +4703,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4715,10 +4718,10 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4726,7 +4729,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4749,19 +4752,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4810,7 +4813,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4822,13 +4825,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4836,7 +4839,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4942,7 +4945,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5046,10 +5049,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5071,13 +5074,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5154,11 +5157,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5183,7 +5186,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5236,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5262,7 +5265,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5288,16 +5291,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5325,10 +5328,10 @@
         <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5346,7 +5349,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5361,10 +5364,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5398,14 +5401,14 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5454,7 +5457,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5469,10 +5472,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5480,7 +5483,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5503,17 +5506,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5562,7 +5565,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5577,18 +5580,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5611,19 +5614,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5672,7 +5675,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5687,10 +5690,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5698,7 +5701,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5721,16 +5724,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5780,7 +5783,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5792,13 +5795,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5806,7 +5809,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5912,7 +5915,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6020,11 +6023,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6049,7 +6052,7 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6102,7 +6105,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6128,7 +6131,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6154,13 +6157,13 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6189,10 +6192,10 @@
         <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -6210,7 +6213,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>50</v>
@@ -6225,10 +6228,10 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6236,7 +6239,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6259,13 +6262,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6316,7 +6319,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6331,10 +6334,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6365,19 +6368,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6426,7 +6429,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6438,13 +6441,13 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6452,7 +6455,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6558,7 +6561,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6666,11 +6669,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6695,7 +6698,7 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>74</v>
@@ -6748,7 +6751,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6774,7 +6777,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6800,13 +6803,13 @@
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6835,10 +6838,10 @@
         <v>109</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6856,7 +6859,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6882,7 +6885,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6905,13 +6908,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6962,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6988,7 +6991,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7011,13 +7014,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7068,7 +7071,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7083,7 +7086,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>68</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7117,13 +7120,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7162,17 +7165,17 @@
         <v>39</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7184,13 +7187,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7304,7 +7307,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7408,10 +7411,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -7433,13 +7436,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7516,11 +7519,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7545,7 +7548,7 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7598,7 +7601,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7624,11 +7627,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7650,16 +7653,16 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7708,7 +7711,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7723,10 +7726,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7760,16 +7763,16 @@
         <v>181</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7797,10 +7800,10 @@
         <v>109</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7818,7 +7821,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7844,7 +7847,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7870,13 +7873,13 @@
         <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7926,7 +7929,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7935,16 +7938,16 @@
         <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7952,7 +7955,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7978,16 +7981,16 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -8015,10 +8018,10 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -8036,7 +8039,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8051,7 +8054,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>68</v>
@@ -8062,7 +8065,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8088,16 +8091,16 @@
         <v>181</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8125,10 +8128,10 @@
         <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -8146,7 +8149,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8161,7 +8164,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>68</v>
@@ -8172,7 +8175,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8195,16 +8198,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8254,7 +8257,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8263,16 +8266,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8280,7 +8283,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8306,16 +8309,16 @@
         <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8343,10 +8346,10 @@
         <v>187</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8364,7 +8367,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8373,13 +8376,13 @@
         <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>68</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8416,13 +8419,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8472,7 +8475,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8481,16 +8484,16 @@
         <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8498,10 +8501,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8523,13 +8526,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8580,7 +8583,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8592,13 +8595,13 @@
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8606,7 +8609,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8712,7 +8715,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8816,10 +8819,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
@@ -8841,13 +8844,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8924,11 +8927,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8953,7 +8956,7 @@
         <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>74</v>
@@ -9006,7 +9009,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9032,11 +9035,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9058,23 +9061,23 @@
         <v>64</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>39</v>
@@ -9116,7 +9119,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9131,10 +9134,10 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9168,23 +9171,23 @@
         <v>181</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>39</v>
@@ -9205,10 +9208,10 @@
         <v>109</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9226,7 +9229,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9252,7 +9255,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9278,13 +9281,13 @@
         <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9334,7 +9337,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9343,16 +9346,16 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9360,7 +9363,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9386,23 +9389,23 @@
         <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9423,10 +9426,10 @@
         <v>175</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>39</v>
@@ -9444,7 +9447,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9459,7 +9462,7 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>68</v>
@@ -9470,7 +9473,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9496,16 +9499,16 @@
         <v>181</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9533,10 +9536,10 @@
         <v>187</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
@@ -9554,7 +9557,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9569,7 +9572,7 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>68</v>
@@ -9580,7 +9583,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9603,16 +9606,16 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9662,7 +9665,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9671,16 +9674,16 @@
         <v>41</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -9688,7 +9691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9714,16 +9717,16 @@
         <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>39</v>
@@ -9752,7 +9755,7 @@
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
@@ -9770,7 +9773,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9779,13 +9782,13 @@
         <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>68</v>
@@ -9796,7 +9799,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9822,13 +9825,13 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9878,7 +9881,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9887,16 +9890,16 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -9904,10 +9907,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9929,13 +9932,13 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9986,7 +9989,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -9998,13 +10001,13 @@
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -10012,7 +10015,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10118,7 +10121,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10222,10 +10225,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -10247,13 +10250,13 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10330,11 +10333,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10359,7 +10362,7 @@
         <v>159</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>74</v>
@@ -10412,7 +10415,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10438,11 +10441,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10464,23 +10467,23 @@
         <v>64</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>39</v>
@@ -10522,7 +10525,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10537,10 +10540,10 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10548,7 +10551,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10574,23 +10577,23 @@
         <v>181</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>39</v>
@@ -10611,10 +10614,10 @@
         <v>109</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10632,7 +10635,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10658,7 +10661,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10684,13 +10687,13 @@
         <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10740,7 +10743,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10749,16 +10752,16 @@
         <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10766,7 +10769,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10792,23 +10795,23 @@
         <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10829,10 +10832,10 @@
         <v>175</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -10850,7 +10853,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10865,7 +10868,7 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>68</v>
@@ -10876,7 +10879,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10902,16 +10905,16 @@
         <v>181</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -10939,10 +10942,10 @@
         <v>187</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>39</v>
@@ -10960,7 +10963,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10975,7 +10978,7 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>68</v>
@@ -10986,7 +10989,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11009,16 +11012,16 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11068,7 +11071,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11077,16 +11080,16 @@
         <v>41</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11094,7 +11097,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11120,16 +11123,16 @@
         <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
@@ -11158,7 +11161,7 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -11176,7 +11179,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11185,13 +11188,13 @@
         <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>68</v>
@@ -11202,7 +11205,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11228,13 +11231,13 @@
         <v>39</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11284,7 +11287,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11293,16 +11296,16 @@
         <v>41</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/composition-phs-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phs-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="435">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
 </t>
   </si>
   <si>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Personal Health Summary"/&gt;</t>
   </si>
   <si>
     <t>./title</t>
@@ -802,7 +799,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -837,7 +834,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -908,7 +905,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -933,7 +930,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1013,8 +1010,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1080,7 +1077,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1093,7 +1090,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1141,7 +1138,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1335,7 +1332,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
+    <t>Allergies and Adverse Reactions</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1346,10 +1343,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
 </t>
   </si>
   <si>
@@ -1372,7 +1369,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medicine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies           ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists()) xor           (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists()))}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {(Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).count() &lt; 2) and            (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).exists() implies            Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().value.coding.where($this.system='http://snomed.info/sct' and $this.code='1234391000168107').exists())}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Current Medications"/&gt;</t>
+    <t>Current Medications</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1383,7 +1380,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1440,67 +1437,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1536,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AL90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4553,7 +4550,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4610,10 +4607,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4647,13 +4644,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4682,46 +4679,46 @@
         <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4752,19 +4749,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4813,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4825,13 +4822,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4945,7 +4942,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5049,10 +5046,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5074,13 +5071,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5157,11 +5154,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5186,7 +5183,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5239,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5291,16 +5288,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5328,11 +5325,11 @@
         <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5364,10 +5361,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5401,14 +5398,14 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5457,7 +5454,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5472,10 +5469,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5483,7 +5480,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5506,17 +5503,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5565,7 +5562,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5580,18 +5577,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5614,19 +5611,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5675,7 +5672,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5690,10 +5687,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5701,7 +5698,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5724,16 +5721,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5783,7 +5780,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5795,13 +5792,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5915,7 +5912,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6023,11 +6020,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6052,7 +6049,7 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6105,7 +6102,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6157,13 +6154,13 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6192,46 +6189,46 @@
         <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6239,7 +6236,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6262,13 +6259,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6319,7 +6316,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6334,10 +6331,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6345,7 +6342,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6368,19 +6365,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6429,7 +6426,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6441,13 +6438,13 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6561,7 +6558,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6669,11 +6666,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6698,7 +6695,7 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>74</v>
@@ -6751,7 +6748,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6777,7 +6774,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6803,13 +6800,13 @@
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6838,11 +6835,11 @@
         <v>109</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6859,7 +6856,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6908,13 +6905,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6965,7 +6962,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6991,7 +6988,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7014,13 +7011,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7071,7 +7068,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7086,7 +7083,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>68</v>
@@ -7097,7 +7094,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7120,13 +7117,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7165,17 +7162,17 @@
         <v>39</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7187,13 +7184,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7307,7 +7304,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7411,10 +7408,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -7436,13 +7433,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7519,11 +7516,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7548,7 +7545,7 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7601,7 +7598,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7627,11 +7624,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7653,16 +7650,16 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7711,7 +7708,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7726,10 +7723,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7737,7 +7734,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7763,16 +7760,16 @@
         <v>181</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7800,11 +7797,11 @@
         <v>109</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7821,7 +7818,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7873,13 +7870,13 @@
         <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7929,7 +7926,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7938,16 +7935,16 @@
         <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7955,7 +7952,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7981,16 +7978,16 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -8018,43 +8015,43 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>68</v>
@@ -8065,7 +8062,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8091,16 +8088,16 @@
         <v>181</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8128,43 +8125,43 @@
         <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>68</v>
@@ -8175,7 +8172,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8198,16 +8195,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8257,7 +8254,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8266,16 +8263,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AK62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8283,7 +8280,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8309,16 +8306,16 @@
         <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8346,43 +8343,43 @@
         <v>187</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>68</v>
@@ -8393,7 +8390,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8419,13 +8416,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8475,7 +8472,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8484,16 +8481,16 @@
         <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8501,10 +8498,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8526,13 +8523,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8583,7 +8580,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8595,13 +8592,13 @@
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8609,7 +8606,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8715,7 +8712,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8819,10 +8816,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
@@ -8844,13 +8841,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8927,11 +8924,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8956,7 +8953,7 @@
         <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>74</v>
@@ -9009,7 +9006,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9035,11 +9032,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9061,23 +9058,23 @@
         <v>64</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>39</v>
@@ -9119,7 +9116,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9134,10 +9131,10 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9145,7 +9142,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9171,23 +9168,23 @@
         <v>181</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>39</v>
@@ -9208,11 +9205,11 @@
         <v>109</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
       </c>
@@ -9229,7 +9226,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9255,7 +9252,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9281,13 +9278,13 @@
         <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9337,7 +9334,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9346,16 +9343,16 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AK72" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9363,7 +9360,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9389,23 +9386,23 @@
         <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9426,43 +9423,43 @@
         <v>175</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>68</v>
@@ -9473,7 +9470,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9499,16 +9496,16 @@
         <v>181</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9536,43 +9533,43 @@
         <v>187</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>68</v>
@@ -9583,7 +9580,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9606,16 +9603,16 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="L75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9665,7 +9662,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9674,16 +9671,16 @@
         <v>41</v>
       </c>
       <c r="AH75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="AK75" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -9691,7 +9688,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9717,16 +9714,16 @@
         <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>39</v>
@@ -9755,7 +9752,7 @@
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
@@ -9773,7 +9770,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9782,13 +9779,13 @@
         <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>68</v>
@@ -9799,7 +9796,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9825,13 +9822,13 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9881,7 +9878,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9890,16 +9887,16 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -9907,10 +9904,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9932,13 +9929,13 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9989,7 +9986,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10001,13 +9998,13 @@
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -10015,7 +10012,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10121,7 +10118,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10225,10 +10222,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -10250,13 +10247,13 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10333,11 +10330,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10362,7 +10359,7 @@
         <v>159</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>74</v>
@@ -10415,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10441,11 +10438,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10467,23 +10464,23 @@
         <v>64</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>39</v>
@@ -10525,7 +10522,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10540,10 +10537,10 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10551,7 +10548,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10577,23 +10574,23 @@
         <v>181</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>39</v>
@@ -10614,11 +10611,11 @@
         <v>109</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
       </c>
@@ -10635,7 +10632,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10661,7 +10658,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10687,13 +10684,13 @@
         <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10743,7 +10740,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10752,16 +10749,16 @@
         <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AI85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AK85" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10769,7 +10766,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10795,23 +10792,23 @@
         <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10832,43 +10829,43 @@
         <v>175</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>68</v>
@@ -10879,7 +10876,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10905,16 +10902,16 @@
         <v>181</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -10942,43 +10939,43 @@
         <v>187</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>68</v>
@@ -10989,7 +10986,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11012,16 +11009,16 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K88" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="L88" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11071,7 +11068,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11080,16 +11077,16 @@
         <v>41</v>
       </c>
       <c r="AH88" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11097,7 +11094,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11123,16 +11120,16 @@
         <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
@@ -11161,7 +11158,7 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -11179,7 +11176,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11188,13 +11185,13 @@
         <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>68</v>
@@ -11205,7 +11202,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11231,13 +11228,13 @@
         <v>39</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11287,7 +11284,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11296,16 +11293,16 @@
         <v>41</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/composition-phs-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phs-1.xlsx
@@ -206,7 +206,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phs-1' {Composition.meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phs-1').exists()}
+    <t xml:space="preserve">inv-dh-cmp-01:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phs-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phs-1').exists()}
 </t>
   </si>
   <si>

--- a/output/PersonalHealthRecords/composition-phs-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phs-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="454">
   <si>
     <t>Path</t>
   </si>
@@ -1120,7 +1120,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-02:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.entry.empty() and $this.emptyReason.empty()).empty()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-02:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1353,6 +1353,66 @@
     <t>Allergies and/or intolerances</t>
   </si>
   <si>
+    <t>Composition.section.entry.id</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/health-summary-non-clinical-empty-reason-1</t>
   </si>
   <si>
@@ -1366,7 +1426,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medicine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies           ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists()) xor           (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists()))}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {(Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).count() &lt; 2) and            (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().where($this is Observation).exists() implies            Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code='101.32009').entry.resolve().value.coding.where($this.system='http://snomed.info/sct' and $this.code='1234391000168107').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medicine entries and assertion of no relevant finding entries {entry.resolve().where($this is MedicationStatement).exists() xor entry.resolve().where($this is Observation ).exists()}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {entry.resolve().where($this is Observation).exists() implies (entry.resolve().where($this is Observation).count() &lt; 2 and entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists())}</t>
   </si>
   <si>
     <t>Current Medications</t>
@@ -1533,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3896,10 +3956,10 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>39</v>
@@ -9184,10 +9244,10 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>39</v>
@@ -9686,9 +9746,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9702,7 +9762,7 @@
         <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>39</v>
@@ -9711,20 +9771,16 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>405</v>
+        <v>65</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>39</v>
       </c>
@@ -9748,11 +9804,13 @@
         <v>39</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>426</v>
+        <v>39</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
@@ -9770,7 +9828,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>404</v>
+        <v>67</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9779,16 +9837,16 @@
         <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>39</v>
@@ -9796,11 +9854,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9819,16 +9877,16 @@
         <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>413</v>
+        <v>72</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9866,19 +9924,19 @@
         <v>39</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9887,28 +9945,26 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>353</v>
+        <v>68</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>416</v>
+        <v>39</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>39</v>
       </c>
@@ -9920,24 +9976,26 @@
         <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>39</v>
@@ -9986,25 +10044,25 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>433</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -10012,7 +10070,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10032,18 +10090,20 @@
         <v>39</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>65</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>39</v>
@@ -10092,7 +10152,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>67</v>
+        <v>438</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10107,7 +10167,7 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>39</v>
@@ -10118,7 +10178,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10129,7 +10189,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>39</v>
@@ -10138,18 +10198,20 @@
         <v>39</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>145</v>
+        <v>441</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>39</v>
@@ -10186,23 +10248,25 @@
         <v>39</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
@@ -10211,7 +10275,7 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>39</v>
@@ -10220,13 +10284,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>39</v>
       </c>
@@ -10235,10 +10297,10 @@
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>39</v>
@@ -10247,16 +10309,20 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
@@ -10280,13 +10346,11 @@
         <v>39</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
-        <v>39</v>
+        <v>445</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>39</v>
@@ -10304,25 +10368,25 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>152</v>
+        <v>401</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>39</v>
@@ -10330,11 +10394,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10347,22 +10411,22 @@
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>159</v>
+        <v>413</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10412,7 +10476,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10421,16 +10485,16 @@
         <v>41</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>39</v>
+        <v>379</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>39</v>
@@ -10438,11 +10502,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="C83" t="s" s="2">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10461,26 +10527,22 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>39</v>
@@ -10522,33 +10584,33 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10556,13 +10618,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>39</v>
@@ -10571,26 +10633,22 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>369</v>
+        <v>65</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>432</v>
+        <v>39</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>39</v>
@@ -10608,13 +10666,13 @@
         <v>39</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>373</v>
+        <v>39</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10632,7 +10690,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10647,18 +10705,18 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10666,13 +10724,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>39</v>
@@ -10681,17 +10739,15 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10728,37 +10784,35 @@
         <v>39</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10766,9 +10820,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
       </c>
@@ -10777,38 +10833,34 @@
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10826,13 +10878,13 @@
         <v>39</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -10850,69 +10902,67 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>390</v>
+        <v>159</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>39</v>
       </c>
@@ -10936,13 +10986,13 @@
         <v>39</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>39</v>
@@ -10960,13 +11010,13 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>389</v>
+        <v>266</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -10975,10 +11025,10 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>396</v>
+        <v>143</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -10986,18 +11036,18 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>39</v>
+        <v>363</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>51</v>
@@ -11009,24 +11059,26 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>433</v>
+        <v>64</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>39</v>
+        <v>450</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>39</v>
@@ -11068,25 +11120,25 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>402</v>
+        <v>239</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>403</v>
+        <v>240</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11094,7 +11146,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11102,7 +11154,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>50</v>
@@ -11120,16 +11172,16 @@
         <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
@@ -11139,7 +11191,7 @@
         <v>39</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>39</v>
@@ -11154,11 +11206,13 @@
         <v>39</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X89" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="Y89" t="s" s="2">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -11176,7 +11230,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11185,24 +11239,24 @@
         <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>411</v>
+        <v>190</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11210,13 +11264,13 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>39</v>
@@ -11225,16 +11279,16 @@
         <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11284,13 +11338,13 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>379</v>
@@ -11299,17 +11353,1099 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X99" s="2"/>
+      <c r="Y99" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AK100" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AL100" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL90">
+  <autoFilter ref="A1:AL100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11319,7 +12455,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
